--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06345261400595076</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.548501112649298</v>
+        <v>-1.518943136812734</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1309758529234775</v>
+        <v>0.1050225082864942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09851770426897616</v>
+        <v>0.09980158729353082</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06473952104229974</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.397843996365083</v>
+        <v>-1.338992140344987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09107972161603359</v>
+        <v>0.05058464820402303</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0784671719415605</v>
+        <v>0.08141125904822337</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07477171916771463</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.356825001091746</v>
+        <v>-1.266718369912372</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06869746254141011</v>
+        <v>0.02525952186409017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.119436763640081</v>
+        <v>0.1260617220309184</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09197608576815219</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.414386264959844</v>
+        <v>-1.317330807510279</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1055683872921837</v>
+        <v>0.0692177248786762</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08601494031631772</v>
+        <v>0.08890901392748725</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1109881049574265</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.436476372030306</v>
+        <v>-1.332964904217362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1919392543264762</v>
+        <v>0.1444294832111862</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1019241112486141</v>
+        <v>0.1122714155296449</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1263967401832798</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.353440551256471</v>
+        <v>-1.246138426437539</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2696199715584623</v>
+        <v>0.2246230736313744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04045935504932852</v>
+        <v>0.05013330690322947</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.136266290485401</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.091095980487506</v>
+        <v>-0.9973578815987737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3423517924193147</v>
+        <v>0.3116142299939196</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006548451348997801</v>
+        <v>0.0003668292839716807</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1377433344106047</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5301976781330732</v>
+        <v>-0.4440030781743609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2991352529476544</v>
+        <v>0.2877004600999818</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04818468634720398</v>
+        <v>-0.05482367291360658</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1280409676881444</v>
       </c>
       <c r="E10" t="n">
-        <v>0.132395748258947</v>
+        <v>0.2252360439115062</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3436594623502626</v>
+        <v>0.3669566024400082</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07490226159215266</v>
+        <v>-0.08173947237849838</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1022438636811922</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9774585335930071</v>
+        <v>1.076238236795739</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1494906049868416</v>
+        <v>0.1777494497819326</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007959807794992807</v>
+        <v>-0.0043185813548069</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05495469819152933</v>
       </c>
       <c r="E12" t="n">
-        <v>1.90802182915564</v>
+        <v>2.065990064592034</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2156042525904854</v>
+        <v>-0.1858474426133011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1261294232260375</v>
+        <v>0.1367182560950605</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02082338594457534</v>
       </c>
       <c r="E13" t="n">
-        <v>2.788589926845235</v>
+        <v>2.991487359013597</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5627808605263079</v>
+        <v>-0.5207371985160341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2489168241069263</v>
+        <v>0.257167831021974</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1266446828268615</v>
       </c>
       <c r="E14" t="n">
-        <v>3.598258405386928</v>
+        <v>3.857978487483847</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.116970035436512</v>
+        <v>-1.088175680287236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4368638806468403</v>
+        <v>0.45911744645867</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2605435528664996</v>
       </c>
       <c r="E15" t="n">
-        <v>4.492786367525932</v>
+        <v>4.814299953066904</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.727563454691023</v>
+        <v>-1.71644765035729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6381059880985085</v>
+        <v>0.6904255936706337</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4180088292790218</v>
       </c>
       <c r="E16" t="n">
-        <v>5.251897301330626</v>
+        <v>5.633890621177934</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.288120201466477</v>
+        <v>-2.296238245673994</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8265202438768117</v>
+        <v>0.8829714521132281</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5945443772250681</v>
       </c>
       <c r="E17" t="n">
-        <v>5.926618390459105</v>
+        <v>6.352107593448024</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.810363561090648</v>
+        <v>-2.808717995104782</v>
       </c>
       <c r="G17" t="n">
-        <v>1.069413834343605</v>
+        <v>1.138234233904472</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7824735924190226</v>
       </c>
       <c r="E18" t="n">
-        <v>6.382319404250063</v>
+        <v>6.839214642726093</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.341911260638611</v>
+        <v>-3.345809263683708</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301826547901159</v>
+        <v>1.375148771977104</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9713494358928685</v>
       </c>
       <c r="E19" t="n">
-        <v>6.755879960820653</v>
+        <v>7.240752260739116</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.804783721746773</v>
+        <v>-3.800556056575894</v>
       </c>
       <c r="G19" t="n">
-        <v>1.525874199377114</v>
+        <v>1.597173316568285</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.155511330030022</v>
       </c>
       <c r="E20" t="n">
-        <v>7.118071595976659</v>
+        <v>7.598582963056374</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.268166381501034</v>
+        <v>-4.237620639128476</v>
       </c>
       <c r="G20" t="n">
-        <v>1.688492470053035</v>
+        <v>1.746856389531733</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.330241531749154</v>
       </c>
       <c r="E21" t="n">
-        <v>7.362914492926339</v>
+        <v>7.858472603101428</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.605637016747426</v>
+        <v>-4.59766901302639</v>
       </c>
       <c r="G21" t="n">
-        <v>1.857017212562584</v>
+        <v>1.916948018259848</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.492888646333045</v>
       </c>
       <c r="E22" t="n">
-        <v>7.504563690735661</v>
+        <v>7.999303287362555</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.858555873377927</v>
+        <v>-4.850643372438475</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02657211109516</v>
+        <v>2.07925278970792</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.635798687826839</v>
       </c>
       <c r="E23" t="n">
-        <v>7.578455580723688</v>
+        <v>8.061362716221669</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.093014260885295</v>
+        <v>-5.084565639670981</v>
       </c>
       <c r="G23" t="n">
-        <v>2.143908650887951</v>
+        <v>2.197697555370363</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.754327912190932</v>
       </c>
       <c r="E24" t="n">
-        <v>7.614423822872874</v>
+        <v>8.061549351948756</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.197084416038139</v>
+        <v>-5.182592090837929</v>
       </c>
       <c r="G24" t="n">
-        <v>2.269576707125121</v>
+        <v>2.342531758953664</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.843420715520574</v>
       </c>
       <c r="E25" t="n">
-        <v>7.613895631566811</v>
+        <v>8.049188699513779</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.231603791619711</v>
+        <v>-5.220461760696877</v>
       </c>
       <c r="G25" t="n">
-        <v>2.306375661236038</v>
+        <v>2.367176213818345</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.900865049267868</v>
       </c>
       <c r="E26" t="n">
-        <v>7.569697119805586</v>
+        <v>7.967462988353599</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.238887464341436</v>
+        <v>-5.227367282599018</v>
       </c>
       <c r="G26" t="n">
-        <v>2.331702007417325</v>
+        <v>2.398679836613736</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.923792672979491</v>
       </c>
       <c r="E27" t="n">
-        <v>7.398853458883041</v>
+        <v>7.766711257126037</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.228467274539534</v>
+        <v>-5.223295452161048</v>
       </c>
       <c r="G27" t="n">
-        <v>2.336330085512489</v>
+        <v>2.404449686215773</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.910419906190483</v>
       </c>
       <c r="E28" t="n">
-        <v>7.23595584453717</v>
+        <v>7.56798202286257</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.190511300904825</v>
+        <v>-5.206896514925323</v>
       </c>
       <c r="G28" t="n">
-        <v>2.274613432073707</v>
+        <v>2.332299729680538</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.862279838643047</v>
       </c>
       <c r="E29" t="n">
-        <v>7.019534031282596</v>
+        <v>7.302936113416288</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.015346047027182</v>
+        <v>-5.023171329309859</v>
       </c>
       <c r="G29" t="n">
-        <v>2.176816311081216</v>
+        <v>2.234330611057204</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.783363506805321</v>
       </c>
       <c r="E30" t="n">
-        <v>6.776317182857126</v>
+        <v>7.021904183032439</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.911164581350831</v>
+        <v>-4.939979978763454</v>
       </c>
       <c r="G30" t="n">
-        <v>2.13485742804501</v>
+        <v>2.195046840109216</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.680795947240567</v>
       </c>
       <c r="E31" t="n">
-        <v>6.542690727152843</v>
+        <v>6.766011963102791</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.846071102085233</v>
+        <v>-4.900172590914478</v>
       </c>
       <c r="G31" t="n">
-        <v>2.055354877751578</v>
+        <v>2.130431233693849</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.56371287393653</v>
       </c>
       <c r="E32" t="n">
-        <v>6.232441156670055</v>
+        <v>6.422242372067283</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.612688919611987</v>
+        <v>-4.664185437230841</v>
       </c>
       <c r="G32" t="n">
-        <v>1.960540268868385</v>
+        <v>2.03121970665198</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.443177642449993</v>
       </c>
       <c r="E33" t="n">
-        <v>5.900131975150643</v>
+        <v>6.071762433746193</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.467643683474532</v>
+        <v>-4.51753946427726</v>
       </c>
       <c r="G33" t="n">
-        <v>1.872269498926022</v>
+        <v>1.946543199257694</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.327681800463106</v>
       </c>
       <c r="E34" t="n">
-        <v>5.622253334665581</v>
+        <v>5.768989270918983</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.266821811369143</v>
+        <v>-4.320946477184104</v>
       </c>
       <c r="G34" t="n">
-        <v>1.698056636185121</v>
+        <v>1.75902003758812</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.221965684340466</v>
       </c>
       <c r="E35" t="n">
-        <v>5.302329202408216</v>
+        <v>5.412378409955221</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.185475470869901</v>
+        <v>-4.252908910811843</v>
       </c>
       <c r="G35" t="n">
-        <v>1.640768006859529</v>
+        <v>1.705269558108343</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.12825448960028</v>
       </c>
       <c r="E36" t="n">
-        <v>4.919993107140574</v>
+        <v>5.007583815528363</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.069536259347539</v>
+        <v>-4.147804330191234</v>
       </c>
       <c r="G36" t="n">
-        <v>1.580988461490099</v>
+        <v>1.637614716960742</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.046263813530298</v>
       </c>
       <c r="E37" t="n">
-        <v>4.566252532881589</v>
+        <v>4.64908829967345</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.917080791947933</v>
+        <v>-3.987290285850094</v>
       </c>
       <c r="G37" t="n">
-        <v>1.468325743843228</v>
+        <v>1.518182489722644</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9749074414263353</v>
       </c>
       <c r="E38" t="n">
-        <v>4.235515726866834</v>
+        <v>4.294706088862526</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.777154620050424</v>
+        <v>-3.83119023744658</v>
       </c>
       <c r="G38" t="n">
-        <v>1.356152182579109</v>
+        <v>1.40107345034228</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9114543630842303</v>
       </c>
       <c r="E39" t="n">
-        <v>3.955460889407135</v>
+        <v>4.016632273760905</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.677633863225443</v>
+        <v>-3.71411413378276</v>
       </c>
       <c r="G39" t="n">
-        <v>1.276878352539457</v>
+        <v>1.322819407674151</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8542233838207308</v>
       </c>
       <c r="E40" t="n">
-        <v>3.570832712236275</v>
+        <v>3.603313427955816</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.596826997564785</v>
+        <v>-3.632897706387665</v>
       </c>
       <c r="G40" t="n">
-        <v>1.171598724684621</v>
+        <v>1.21797770286522</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.799739434258984</v>
       </c>
       <c r="E41" t="n">
-        <v>3.319695433902555</v>
+        <v>3.336425558065754</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.466512565612148</v>
+        <v>-3.499377531358041</v>
       </c>
       <c r="G41" t="n">
-        <v>1.103858494642274</v>
+        <v>1.146179670560469</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7479916868787179</v>
       </c>
       <c r="E42" t="n">
-        <v>2.980911334478786</v>
+        <v>2.977082252470161</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.356452989413638</v>
+        <v>-3.373559739594729</v>
       </c>
       <c r="G42" t="n">
-        <v>1.046383229589598</v>
+        <v>1.086738631166633</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6970377277913737</v>
       </c>
       <c r="E43" t="n">
-        <v>2.630082521530596</v>
+        <v>2.600109799633843</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.233148985719544</v>
+        <v>-3.248420179623961</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9622587004077686</v>
+        <v>0.9996346394788896</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6468941661817537</v>
       </c>
       <c r="E44" t="n">
-        <v>2.358693437046134</v>
+        <v>2.311531930637267</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.210920426655461</v>
+        <v>-3.233637532181619</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9423454002326214</v>
+        <v>0.9786643467709379</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5959074648176867</v>
       </c>
       <c r="E45" t="n">
-        <v>2.071900195949722</v>
+        <v>2.010970950104622</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.12162895446056</v>
+        <v>-3.142737394201795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8313599644468075</v>
+        <v>0.8487036688108153</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5436354587946834</v>
       </c>
       <c r="E46" t="n">
-        <v>1.953423104491412</v>
+        <v>1.897864820125755</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.034700314967381</v>
+        <v>-3.059652169853145</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7844222989263071</v>
+        <v>0.7937302983741593</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4897483325626672</v>
       </c>
       <c r="E47" t="n">
-        <v>1.67709366252529</v>
+        <v>1.596295030793768</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.950937468746864</v>
+        <v>-2.967787747283382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6729129412791667</v>
+        <v>0.6699664144897969</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.434591885210165</v>
       </c>
       <c r="E48" t="n">
-        <v>1.514691303768938</v>
+        <v>1.426369910410406</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.85354045571832</v>
+        <v>-2.861640812226211</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6271688905230624</v>
+        <v>0.6184183585737579</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3787421921378473</v>
       </c>
       <c r="E49" t="n">
-        <v>1.356848711991955</v>
+        <v>1.266925666936282</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.790616159339576</v>
+        <v>-2.790233129154578</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5626844170531972</v>
+        <v>0.5607808546210665</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.323280011218282</v>
       </c>
       <c r="E50" t="n">
-        <v>1.235299450084865</v>
+        <v>1.124296326599425</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.710858662203263</v>
+        <v>-2.718047187299415</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5451864027579721</v>
+        <v>0.5499285360196883</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2701904553828589</v>
       </c>
       <c r="E51" t="n">
-        <v>1.136527065930254</v>
+        <v>1.025569686495571</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.652830809017453</v>
+        <v>-2.654497722227005</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4667133985668903</v>
+        <v>0.4691079471438032</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2201481757378614</v>
       </c>
       <c r="E52" t="n">
-        <v>1.092324894644969</v>
+        <v>0.9848141769545886</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.572667104710425</v>
+        <v>-2.573860719474821</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4114289685850928</v>
+        <v>0.4187687540090789</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1741981448815961</v>
       </c>
       <c r="E53" t="n">
-        <v>1.05199449981568</v>
+        <v>0.9467734243458122</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.510439947665204</v>
+        <v>-2.496178782401481</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3741317092812723</v>
+        <v>0.3746519716185384</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1317083923006261</v>
       </c>
       <c r="E54" t="n">
-        <v>1.019741894429243</v>
+        <v>0.9269064781420977</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.456667511041065</v>
+        <v>-2.44243684181118</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3392363176024857</v>
+        <v>0.345398956120348</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09287049245623882</v>
       </c>
       <c r="E55" t="n">
-        <v>1.041461169728241</v>
+        <v>0.9808698199380589</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.415030056201506</v>
+        <v>-2.395575416375273</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3225824335238799</v>
+        <v>0.3356999975187004</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05603318927003022</v>
       </c>
       <c r="E56" t="n">
-        <v>1.049194963909407</v>
+        <v>0.9920502758635276</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.381428916198779</v>
+        <v>-2.355631101334366</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2746438881728361</v>
+        <v>0.275694781498873</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02061128133803657</v>
       </c>
       <c r="E57" t="n">
-        <v>0.98862130181885</v>
+        <v>0.9679327924635558</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.334091142714332</v>
+        <v>-2.304373367660459</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2142281955375572</v>
+        <v>0.207537365713631</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01547940114527694</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9739155043817775</v>
+        <v>0.948575130024926</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.374051315692834</v>
+        <v>-2.352098440774641</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2037637864865908</v>
+        <v>0.2027458288770983</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.05408161724388963</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9877674128714027</v>
+        <v>0.9755763183845625</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.286553315247911</v>
+        <v>-2.260085197559753</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1844079538099912</v>
+        <v>0.1789192776399354</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09693482696415709</v>
       </c>
       <c r="E60" t="n">
-        <v>1.00855472937633</v>
+        <v>1.012742444742882</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.295660040872436</v>
+        <v>-2.26404114306914</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1972870388202032</v>
+        <v>0.2016430922935378</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1448330520234628</v>
       </c>
       <c r="E61" t="n">
-        <v>1.09823258631995</v>
+        <v>1.096676068752889</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.298357110105016</v>
+        <v>-2.267748240942415</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2081174002772184</v>
+        <v>0.2113597385948111</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1973202557998078</v>
       </c>
       <c r="E62" t="n">
-        <v>1.141711391682612</v>
+        <v>1.144226704553521</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.311705224115648</v>
+        <v>-2.297978959285432</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1923643690381696</v>
+        <v>0.2037424392629046</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2531532781803184</v>
       </c>
       <c r="E63" t="n">
-        <v>1.218102736603953</v>
+        <v>1.217864867540021</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.318246623373771</v>
+        <v>-2.286679568827998</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1735751526702689</v>
+        <v>0.186512180144772</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3100616803944954</v>
       </c>
       <c r="E64" t="n">
-        <v>1.293380366369552</v>
+        <v>1.307043809370062</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.412324448079452</v>
+        <v>-2.396800137094183</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2081747328208327</v>
+        <v>0.2270877630861133</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3675178156180537</v>
       </c>
       <c r="E65" t="n">
-        <v>1.37629908237345</v>
+        <v>1.402581784175878</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.499923695356715</v>
+        <v>-2.476491762797408</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1835241787493832</v>
+        <v>0.203003215402686</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4239786050017036</v>
       </c>
       <c r="E66" t="n">
-        <v>1.433446210102037</v>
+        <v>1.461301897329797</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.58374326420017</v>
+        <v>-2.556431626216069</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1749169781591146</v>
+        <v>0.187853395712941</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.478816338015517</v>
       </c>
       <c r="E67" t="n">
-        <v>1.516623532472876</v>
+        <v>1.568308820541183</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.617382829205532</v>
+        <v>-2.576107667247961</v>
       </c>
       <c r="G67" t="n">
-        <v>0.116546349552972</v>
+        <v>0.1214104669500378</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5302455865261619</v>
       </c>
       <c r="E68" t="n">
-        <v>1.589576754539388</v>
+        <v>1.654722991943525</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.662601738258957</v>
+        <v>-2.607838180535102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1067449242776307</v>
+        <v>0.1204547212495736</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5775073338642958</v>
       </c>
       <c r="E69" t="n">
-        <v>1.584388159342292</v>
+        <v>1.658621604909299</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.714108319568977</v>
+        <v>-2.671238824962386</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1247424636071124</v>
+        <v>0.1393201777020677</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6192819640674918</v>
       </c>
       <c r="E70" t="n">
-        <v>1.644502551163258</v>
+        <v>1.744757652483043</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.695944271894743</v>
+        <v>-2.621958454122496</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1056549960282819</v>
+        <v>0.1132277711507858</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6553913132496088</v>
       </c>
       <c r="E71" t="n">
-        <v>1.664579310079774</v>
+        <v>1.780813113289005</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.732205885889445</v>
+        <v>-2.648423522207271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.09622501244508021</v>
+        <v>0.09730701172563126</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6854591820873912</v>
       </c>
       <c r="E72" t="n">
-        <v>1.683461844311217</v>
+        <v>1.811653142388093</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.767663624432193</v>
+        <v>-2.667743369563943</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05209725148235821</v>
+        <v>0.05736452644675444</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.70983030130689</v>
       </c>
       <c r="E73" t="n">
-        <v>1.750434794142214</v>
+        <v>1.874062665715662</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.812815442211175</v>
+        <v>-2.709628452198262</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.001383643058295246</v>
+        <v>0.001783065095380671</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7287387766780195</v>
       </c>
       <c r="E74" t="n">
-        <v>1.767284462758056</v>
+        <v>1.903937800304135</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.809164457040161</v>
+        <v>-2.683396373812005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.02845802189914154</v>
+        <v>-0.02488083713001418</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7412037565319124</v>
       </c>
       <c r="E75" t="n">
-        <v>1.756359563596145</v>
+        <v>1.889804718382529</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.776105536519063</v>
+        <v>-2.635814022136182</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03019507598652001</v>
+        <v>-0.03002673787973754</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7461427856705497</v>
       </c>
       <c r="E76" t="n">
-        <v>1.8155718827362</v>
+        <v>1.962368201136599</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.824736951758893</v>
+        <v>-2.66527563050582</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04969363010147867</v>
+        <v>-0.04602129770677862</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7424368183193354</v>
       </c>
       <c r="E77" t="n">
-        <v>1.736643877720264</v>
+        <v>1.881473201938151</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.853426400551768</v>
+        <v>-2.71755681107531</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02373296641637433</v>
+        <v>-0.00410510911794508</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7291952631680145</v>
       </c>
       <c r="E78" t="n">
-        <v>1.803369809677178</v>
+        <v>1.954402027177593</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.87502491155677</v>
+        <v>-2.758094578934693</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.03353866113645286</v>
+        <v>-0.02327857551219703</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7059524243124318</v>
       </c>
       <c r="E79" t="n">
-        <v>1.861042079108444</v>
+        <v>2.023196810070036</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.844190981664449</v>
+        <v>-2.726990454182572</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02048567272718312</v>
+        <v>0.04523076450352858</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6721746830307492</v>
       </c>
       <c r="E80" t="n">
-        <v>1.920306851426699</v>
+        <v>2.095819455129751</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.792141570952123</v>
+        <v>-2.674697685120224</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.002034428420385424</v>
+        <v>0.02521743733739455</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.628001320811498</v>
       </c>
       <c r="E81" t="n">
-        <v>2.028559842580682</v>
+        <v>2.19997499917734</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.647076207432335</v>
+        <v>-2.516697123887963</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02031863046793871</v>
+        <v>0.001515309918288274</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5735017062604254</v>
       </c>
       <c r="E82" t="n">
-        <v>2.086785919986435</v>
+        <v>2.275453902766265</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.553998042715844</v>
+        <v>-2.439883103937636</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01800512533484877</v>
+        <v>0.05398983534230744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5106780160543144</v>
       </c>
       <c r="E83" t="n">
-        <v>2.246816907151591</v>
+        <v>2.428730628357113</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.418404747305953</v>
+        <v>-2.29753493703276</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03513901698605521</v>
+        <v>0.06743187713715788</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.440322333259892</v>
       </c>
       <c r="E84" t="n">
-        <v>2.44429458418637</v>
+        <v>2.628258858707119</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.294179763389969</v>
+        <v>-2.171527764899318</v>
       </c>
       <c r="G84" t="n">
-        <v>0.004110522397851261</v>
+        <v>0.03884672478000666</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3645668531234584</v>
       </c>
       <c r="E85" t="n">
-        <v>2.549527858069773</v>
+        <v>2.722759968362463</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.071181785398697</v>
+        <v>-1.932599878672741</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04557049032047725</v>
+        <v>0.08329408417734463</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2847731117561148</v>
       </c>
       <c r="E86" t="n">
-        <v>2.70347793608775</v>
+        <v>2.879372960055123</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.859003800212937</v>
+        <v>-1.713682270008914</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0461676026630136</v>
+        <v>0.08068850304627692</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2044873544627057</v>
       </c>
       <c r="E87" t="n">
-        <v>2.847204523722076</v>
+        <v>3.039050193227764</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.587720232005552</v>
+        <v>-1.433695133744334</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06425114080791676</v>
+        <v>0.09217452923079636</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1272400386143065</v>
       </c>
       <c r="E88" t="n">
-        <v>2.962438057021441</v>
+        <v>3.174342797744018</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.313896954100188</v>
+        <v>-1.167756910347969</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03659550756212957</v>
+        <v>0.05373244881671976</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05747735730890816</v>
       </c>
       <c r="E89" t="n">
-        <v>3.016031786887293</v>
+        <v>3.240402086401247</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.114752973776533</v>
+        <v>-0.9552977517302276</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.001642249425236422</v>
+        <v>0.0117131836335158</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0004491667642415796</v>
       </c>
       <c r="E90" t="n">
-        <v>3.100870533181594</v>
+        <v>3.326760755022005</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9145770076678202</v>
+        <v>-0.7557762305076656</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01690124491611934</v>
+        <v>-0.003523854713004181</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04213408842618311</v>
       </c>
       <c r="E91" t="n">
-        <v>3.073520470194858</v>
+        <v>3.290747378742739</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5904364937720952</v>
+        <v>-0.4382143210313451</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02455330972660047</v>
+        <v>-0.02191967224440236</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06364839451024763</v>
       </c>
       <c r="E92" t="n">
-        <v>3.040424954433154</v>
+        <v>3.280719062975647</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4057244565016528</v>
+        <v>-0.2590739091429962</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01925065936295286</v>
+        <v>-0.01422491298654886</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06285650912345776</v>
       </c>
       <c r="E93" t="n">
-        <v>2.982710600475193</v>
+        <v>3.234190654229245</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1048737636475522</v>
+        <v>0.05010464063142231</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1173326133114848</v>
+        <v>-0.1270468199300511</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03963381866578204</v>
       </c>
       <c r="E94" t="n">
-        <v>2.877567594851948</v>
+        <v>3.117476233526737</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08910296870269313</v>
+        <v>0.2264461265341743</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1417581066532143</v>
+        <v>-0.1494107813843722</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.002218507781067216</v>
       </c>
       <c r="E95" t="n">
-        <v>2.703592601174979</v>
+        <v>2.928778974554422</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2973079306001172</v>
+        <v>0.4434626124485775</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1602429726034177</v>
+        <v>-0.1665495524009926</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05442676436812627</v>
       </c>
       <c r="E96" t="n">
-        <v>2.492442942250215</v>
+        <v>2.70123098831461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4053614776928031</v>
+        <v>0.5400648988353187</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1860895811219701</v>
+        <v>-0.1896466385087648</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1051378433202828</v>
       </c>
       <c r="E97" t="n">
-        <v>2.310086418633374</v>
+        <v>2.504226609724987</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5136480144840069</v>
+        <v>0.6377534539473482</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2003324487653908</v>
+        <v>-0.209064073173716</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1418103327805107</v>
       </c>
       <c r="E98" t="n">
-        <v>2.051614234241082</v>
+        <v>2.205516738446273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5594951418344816</v>
+        <v>0.6684916262934201</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3210790550618806</v>
+        <v>-0.3322247455087746</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1557952292346179</v>
       </c>
       <c r="E99" t="n">
-        <v>1.807811861965934</v>
+        <v>1.919195575953664</v>
       </c>
       <c r="F99" t="n">
-        <v>0.616295224697998</v>
+        <v>0.7219566628964781</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3309963652658039</v>
+        <v>-0.3473379699579147</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1462843245442051</v>
       </c>
       <c r="E100" t="n">
-        <v>1.606855197390984</v>
+        <v>1.697253370653844</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6061595628917987</v>
+        <v>0.6928341704231118</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4148842452250551</v>
+        <v>-0.4392371580062516</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.122983069617378</v>
       </c>
       <c r="E101" t="n">
-        <v>1.380931429913352</v>
+        <v>1.417472387578005</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6064822109297985</v>
+        <v>0.6796525647572328</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4499912793786733</v>
+        <v>-0.4817858343368728</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09289004504127384</v>
       </c>
       <c r="E102" t="n">
-        <v>1.120947862084078</v>
+        <v>1.122425089963162</v>
       </c>
       <c r="F102" t="n">
-        <v>0.552154136569142</v>
+        <v>0.6147923801504908</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.483785154315253</v>
+        <v>-0.512525836444975</v>
       </c>
     </row>
   </sheetData>
